--- a/192序列.xlsx
+++ b/192序列.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
-  <si>
-    <t>花添　爱华</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="206">
   <si>
     <t>九十九　明里</t>
   </si>
@@ -588,6 +585,74 @@
   </si>
   <si>
     <t>域</t>
+  </si>
+  <si>
+    <t>stripe_aika_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zexal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花添　爱华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_aki_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_akari_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浜口　百惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎城　骸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_ammon_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5stripe_andore_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -610,15 +675,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -626,12 +697,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -933,1557 +1058,1989 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A101">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A102">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A103">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A104">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A105">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A106">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A107">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A108">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A109">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A110">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A111">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A112">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A114">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A115">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A116">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A117">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A118">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A119">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A120">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A121">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A122">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A123">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A124">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A125">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A126">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A127">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A128">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A129">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A130">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A131">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A132">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A133">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A134">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A135">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A136">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A137">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B137" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A138">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B138" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A139">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B139" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A140">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B140" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A141">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B141" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A142">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B142" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A143">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B143" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A144">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B144" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A145">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B145" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A146">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B146" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A147">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B147" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A148">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B148" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A149">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B149" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A150">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B150" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A151">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B151" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A152">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B152" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A153">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B153" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A154">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B154" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A155">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B155" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A156">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B156" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A157">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B157" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A158">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B158" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A159">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B159" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A160">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B160" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A161">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B161" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A162">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B162" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A163">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B163" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A164">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B164" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A165">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B165" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A166">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B166" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A167">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B167" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A168">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B168" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A169">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B169" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A170">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B170" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A171">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B171" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A172">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B172" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A173">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B173" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A174">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B174" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A175">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B175" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A176">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B176" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A177">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B177" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A178">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B178" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A179">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B179" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A180">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B180" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A181">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B181" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A182">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B182" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A183">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B183" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A184">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B184" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A185">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B185" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A186">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B186" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A187">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B187" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A188">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B188" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A189">
-        <v>189</v>
-      </c>
-      <c r="B189" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A190">
-        <v>190</v>
-      </c>
-      <c r="B190" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A191">
-        <v>191</v>
-      </c>
-      <c r="B191" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A192">
-        <v>192</v>
-      </c>
-      <c r="B192" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/192序列.xlsx
+++ b/192序列.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="208">
   <si>
     <t>九十九　明里</t>
   </si>
@@ -652,6 +652,14 @@
   </si>
   <si>
     <t>5stripe_andore_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_mukuro_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5DS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +667,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +677,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -743,20 +766,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1061,19 +1088,19 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5"/>
+    <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>190</v>
       </c>
@@ -1090,54 +1117,52 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1147,27 +1172,29 @@
       <c r="C5" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1177,7 +1204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1187,7 +1214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1197,7 +1224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1207,7 +1234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1217,7 +1244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1227,7 +1254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1237,7 +1264,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1247,7 +1274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1257,7 +1284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1267,7 +1294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1277,7 +1304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1287,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1297,7 +1324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1307,7 +1334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1317,7 +1344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1327,7 +1354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1337,7 +1364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1347,7 +1374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1357,7 +1384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1367,7 +1394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1377,7 +1404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1387,7 +1414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1397,7 +1424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1407,7 +1434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1417,7 +1444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1427,7 +1454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1437,7 +1464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1447,7 +1474,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1457,7 +1484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1467,7 +1494,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1477,7 +1504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1487,7 +1514,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1497,7 +1524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1507,7 +1534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1517,7 +1544,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1527,7 +1554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1537,7 +1564,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1547,7 +1574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1557,7 +1584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1567,7 +1594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1577,7 +1604,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1587,7 +1614,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1597,7 +1624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1607,7 +1634,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1617,7 +1644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1627,7 +1654,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1637,7 +1664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1647,7 +1674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1657,7 +1684,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1667,7 +1694,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1677,7 +1704,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1687,7 +1714,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1697,7 +1724,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1707,7 +1734,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1717,7 +1744,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1727,7 +1754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1737,7 +1764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -1747,7 +1774,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -1757,7 +1784,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -1767,7 +1794,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -1777,7 +1804,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1787,7 +1814,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -1797,7 +1824,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -1807,7 +1834,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1817,7 +1844,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1827,7 +1854,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -1837,7 +1864,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -1847,7 +1874,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -1857,7 +1884,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -1867,7 +1894,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -1877,7 +1904,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -1887,7 +1914,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -1897,7 +1924,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -1907,7 +1934,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -1917,7 +1944,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -1927,7 +1954,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -1937,7 +1964,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -1947,7 +1974,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -1957,7 +1984,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -1967,7 +1994,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -1977,7 +2004,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -1987,7 +2014,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -1997,7 +2024,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -2007,7 +2034,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -2017,7 +2044,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -2027,7 +2054,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -2037,7 +2064,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -2047,7 +2074,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -2057,7 +2084,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -2067,7 +2094,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -2077,7 +2104,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -2087,7 +2114,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -2097,7 +2124,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -2107,17 +2134,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="2">
+    <row r="101" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="3" t="s">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -2127,7 +2155,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -2137,7 +2165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -2147,7 +2175,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -2157,7 +2185,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -2167,7 +2195,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -2177,7 +2205,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -2187,7 +2215,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -2197,7 +2225,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -2207,7 +2235,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -2217,7 +2245,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -2227,7 +2255,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -2237,7 +2265,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -2247,7 +2275,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -2257,7 +2285,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -2267,7 +2295,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -2277,7 +2305,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -2287,7 +2315,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -2297,7 +2325,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -2307,7 +2335,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -2317,7 +2345,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -2327,7 +2355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -2337,7 +2365,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -2347,7 +2375,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -2357,7 +2385,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -2367,7 +2395,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -2377,7 +2405,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -2387,7 +2415,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -2397,7 +2425,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -2407,7 +2435,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -2417,7 +2445,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -2427,7 +2455,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -2437,7 +2465,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -2447,7 +2475,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -2457,7 +2485,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -2467,7 +2495,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -2477,7 +2505,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -2487,17 +2515,22 @@
         <v>199</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="2">
+    <row r="139" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="5">
         <v>138</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="3" t="s">
+      <c r="B139" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D139" s="6" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E139" s="5"/>
+    </row>
+    <row r="140" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -2507,7 +2540,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -2517,7 +2550,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -2527,7 +2560,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -2537,7 +2570,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -2547,7 +2580,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -2557,7 +2590,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -2567,7 +2600,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -2577,7 +2610,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -2587,7 +2620,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -2597,7 +2630,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -2607,7 +2640,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -2617,7 +2650,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -2627,7 +2660,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -2637,7 +2670,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -2647,7 +2680,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -2657,7 +2690,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -2667,7 +2700,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -2677,7 +2710,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -2687,7 +2720,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -2697,7 +2730,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -2707,7 +2740,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -2717,7 +2750,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -2727,7 +2760,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -2737,7 +2770,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -2747,7 +2780,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -2757,7 +2790,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -2767,7 +2800,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -2777,7 +2810,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -2787,7 +2820,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -2797,7 +2830,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -2807,7 +2840,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -2817,7 +2850,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -2827,7 +2860,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -2837,7 +2870,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -2847,7 +2880,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -2857,7 +2890,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -2867,7 +2900,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -2877,7 +2910,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -2887,7 +2920,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -2897,7 +2930,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -2907,7 +2940,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -2917,7 +2950,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -2927,7 +2960,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -2937,7 +2970,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -2947,7 +2980,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -2957,7 +2990,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -2967,7 +3000,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -2977,7 +3010,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -2987,7 +3020,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -2997,7 +3030,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -3007,7 +3040,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -3017,7 +3050,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -3027,7 +3060,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>192</v>
       </c>

--- a/192序列.xlsx
+++ b/192序列.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="399">
   <si>
     <t>九十九　明里</t>
   </si>
@@ -24,9 +24,6 @@
     <t>十六夜　秋</t>
   </si>
   <si>
-    <t>阿蒙・加勒姆</t>
-  </si>
-  <si>
     <t>安德烈</t>
   </si>
   <si>
@@ -651,15 +648,806 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5stripe_andore_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stripe_mukuro_00.ehp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>阿蒙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加勒姆</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_andore_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_ankokuji_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_anna_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_anzu_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_aporia_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_arito_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_astral_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_asuka_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_ayukawa_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_bakura_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_balien_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_bommer_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_brave_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_breo_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_bruno_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_bruno_01.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_card1az_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_card2wd_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_card3vs_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_card4vd_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_card5am_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_cathy_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_charlie_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_cronos_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_crow_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_curley_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_daitokuji_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_devine_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_dimachaer_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_dog_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_dolowa_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_dragan_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_durbe_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_edo_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_faker_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_five_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_four_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_fubuki_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_fujiwara_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_girag_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gongenzaka_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_goshu_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_boy_aa_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_boy_bb_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_aa_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_ab_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_ae_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_ad_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_ba_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_bb_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_bc_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_bd_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_be_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_ca_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_cd_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_girl_aa_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_girl_ad_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_girl_bb_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_girl_be_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_man_ab_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_man_bc_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_man_bd_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_man_be_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student01_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student02_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student03_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student04_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student05_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student06_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student07_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student08_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student09_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student10_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student11_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student12_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff01_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff02_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff03_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff04_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff05_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff06_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff07_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff08_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_woman_bc_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_woman_ca_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_woman_ce_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_haga_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_harald_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_haru_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_haruto_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_hayato_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_himuro_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_hokuto_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_honda_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_hose_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_housaku_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_isizu_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_jack_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_jean_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_jim_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_jinbei_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_johann_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_jonouchi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_judai_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_junko_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kagurazaka_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kaiba_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kaito_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kajiki_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kakeru_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kamyura_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kenzan_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kiryu_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kotori_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kyuando_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_larry_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_lua_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_luca_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_lucciano_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_mai_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_manjoume_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_marik_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_masumi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_meikyu_old_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_meikyu_young_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_michio_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_mieru_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_misawa_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_misty_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_mizael_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_mizuchi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_momoe_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_mutoyugi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_napoleon_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_no96_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_obrien_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_orbital_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_otogi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_pegasus_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_placido_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_reiji_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_rex_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_rio_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_robin_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_rudger_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_ryo_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sagiri_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_saioh_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sanagi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sawatari_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_seiko_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_shark_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sherry_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_shingetsu_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_shobee_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sugoroku_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_syou_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_syun_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_syuta_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_syuzou_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_taro_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_tetsuo_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_three_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_titan_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_todoroki_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_tokunosuke_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_tome_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_tron_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_umimi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_ushio_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_vector_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yaiba_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yamikawa_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yamimarik_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yeager_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yoshizo_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yubel_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yuma_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yusei_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yuto_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yuya_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yuzu_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_zone_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sora_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yamiyugi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zexal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_licid_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5ds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +1455,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +1483,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -752,7 +1548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -773,10 +1569,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,150 +1880,172 @@
   <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="D5" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+    </row>
+    <row r="6" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1239,9 +2053,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1249,9 +2065,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="D12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1259,9 +2077,11 @@
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>214</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1269,9 +2089,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1279,9 +2101,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1289,9 +2113,11 @@
         <v>15</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1299,9 +2125,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1309,9 +2137,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1319,9 +2149,11 @@
         <v>18</v>
       </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="D19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1329,9 +2161,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="D20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1339,9 +2173,11 @@
         <v>20</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>222</v>
+      </c>
       <c r="D21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1349,9 +2185,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="D22" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1359,9 +2197,11 @@
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="D23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1369,9 +2209,11 @@
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1379,9 +2221,11 @@
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="D25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1389,9 +2233,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="D26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1399,9 +2245,11 @@
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>228</v>
+      </c>
       <c r="D27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1409,9 +2257,11 @@
         <v>27</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="D28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1419,9 +2269,11 @@
         <v>28</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>230</v>
+      </c>
       <c r="D29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1429,9 +2281,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="D30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1439,9 +2293,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="D31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1449,9 +2305,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="D32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1459,9 +2317,11 @@
         <v>32</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="D33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1469,9 +2329,11 @@
         <v>33</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="D34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1479,9 +2341,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="D35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1489,9 +2353,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="D36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1499,9 +2365,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1509,9 +2377,11 @@
         <v>37</v>
       </c>
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="D38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1519,9 +2389,11 @@
         <v>38</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="D39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1529,9 +2401,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="D40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1539,9 +2413,11 @@
         <v>40</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="D41" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1549,9 +2425,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="D42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1559,9 +2437,11 @@
         <v>42</v>
       </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="D43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1569,9 +2449,11 @@
         <v>43</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="D44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1579,9 +2461,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="D45" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1589,9 +2473,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="D46" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1599,9 +2485,11 @@
         <v>46</v>
       </c>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="D47" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1609,9 +2497,11 @@
         <v>47</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="D48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1619,9 +2509,11 @@
         <v>48</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="D49" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1629,9 +2521,11 @@
         <v>49</v>
       </c>
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="D50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1639,9 +2533,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="D51" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1649,9 +2545,11 @@
         <v>51</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="D52" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1659,9 +2557,11 @@
         <v>52</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="D53" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1669,9 +2569,11 @@
         <v>53</v>
       </c>
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="D54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1679,9 +2581,11 @@
         <v>54</v>
       </c>
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="D55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1689,9 +2593,11 @@
         <v>55</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="D56" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1699,9 +2605,11 @@
         <v>56</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="D57" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1709,9 +2617,11 @@
         <v>57</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="D58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1719,9 +2629,11 @@
         <v>58</v>
       </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="D59" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1729,9 +2641,11 @@
         <v>59</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="D60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1739,9 +2653,11 @@
         <v>60</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="D61" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1749,9 +2665,11 @@
         <v>61</v>
       </c>
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="D62" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1759,9 +2677,11 @@
         <v>62</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="D63" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1769,9 +2689,11 @@
         <v>63</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="D64" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1779,9 +2701,11 @@
         <v>64</v>
       </c>
       <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="D65" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1789,9 +2713,11 @@
         <v>65</v>
       </c>
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="D66" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1799,9 +2725,11 @@
         <v>66</v>
       </c>
       <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="D67" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1809,9 +2737,11 @@
         <v>67</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="D68" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1819,9 +2749,11 @@
         <v>68</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>270</v>
+      </c>
       <c r="D69" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1829,9 +2761,11 @@
         <v>69</v>
       </c>
       <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="D70" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1839,9 +2773,11 @@
         <v>70</v>
       </c>
       <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="D71" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1849,9 +2785,11 @@
         <v>71</v>
       </c>
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>273</v>
+      </c>
       <c r="D72" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1859,9 +2797,11 @@
         <v>72</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="D73" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1869,9 +2809,11 @@
         <v>73</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>275</v>
+      </c>
       <c r="D74" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1879,9 +2821,11 @@
         <v>74</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="D75" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1889,9 +2833,11 @@
         <v>75</v>
       </c>
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="D76" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1899,9 +2845,11 @@
         <v>76</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="D77" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1909,9 +2857,11 @@
         <v>77</v>
       </c>
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="D78" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1919,9 +2869,11 @@
         <v>78</v>
       </c>
       <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="D79" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1929,9 +2881,11 @@
         <v>79</v>
       </c>
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D80" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1939,9 +2893,11 @@
         <v>80</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="D81" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1949,9 +2905,11 @@
         <v>81</v>
       </c>
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="D82" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1959,9 +2917,11 @@
         <v>82</v>
       </c>
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="D83" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1969,9 +2929,11 @@
         <v>83</v>
       </c>
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D84" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1979,9 +2941,11 @@
         <v>84</v>
       </c>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="D85" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1989,9 +2953,11 @@
         <v>85</v>
       </c>
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="D86" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1999,9 +2965,11 @@
         <v>86</v>
       </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="D87" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2009,9 +2977,11 @@
         <v>87</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>289</v>
+      </c>
       <c r="D88" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2019,9 +2989,11 @@
         <v>88</v>
       </c>
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="D89" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2029,9 +3001,11 @@
         <v>89</v>
       </c>
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="D90" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2039,9 +3013,11 @@
         <v>90</v>
       </c>
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>292</v>
+      </c>
       <c r="D91" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2049,9 +3025,11 @@
         <v>91</v>
       </c>
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="D92" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2059,9 +3037,11 @@
         <v>92</v>
       </c>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="D93" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2069,9 +3049,11 @@
         <v>93</v>
       </c>
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="D94" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2079,9 +3061,11 @@
         <v>94</v>
       </c>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="D95" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2089,9 +3073,11 @@
         <v>95</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="D96" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2099,9 +3085,11 @@
         <v>96</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="D97" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2109,9 +3097,11 @@
         <v>97</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="D98" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2119,9 +3109,11 @@
         <v>98</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="D99" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2129,9 +3121,11 @@
         <v>99</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="D100" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2139,9 +3133,11 @@
         <v>100</v>
       </c>
       <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
+      <c r="C101" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="D101" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E101" s="5"/>
     </row>
@@ -2150,9 +3146,11 @@
         <v>101</v>
       </c>
       <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>303</v>
+      </c>
       <c r="D102" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2160,9 +3158,11 @@
         <v>102</v>
       </c>
       <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>304</v>
+      </c>
       <c r="D103" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2170,9 +3170,11 @@
         <v>103</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>305</v>
+      </c>
       <c r="D104" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2180,9 +3182,11 @@
         <v>104</v>
       </c>
       <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="D105" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2190,9 +3194,11 @@
         <v>105</v>
       </c>
       <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="D106" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2200,9 +3206,11 @@
         <v>106</v>
       </c>
       <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
+      <c r="C107" s="2" t="s">
+        <v>308</v>
+      </c>
       <c r="D107" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2210,9 +3218,11 @@
         <v>107</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="D108" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2220,9 +3230,11 @@
         <v>108</v>
       </c>
       <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="C109" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="D109" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2230,9 +3242,11 @@
         <v>109</v>
       </c>
       <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+      <c r="C110" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="D110" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2240,9 +3254,11 @@
         <v>110</v>
       </c>
       <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="C111" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="D111" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2250,169 +3266,208 @@
         <v>111</v>
       </c>
       <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="C112" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="D112" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="D113" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="C114" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="D114" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="C115" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="D115" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="C116" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="D116" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="C117" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="D117" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="C118" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="D118" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="D119" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="C120" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="D120" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="C121" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="D121" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="B122" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="D122" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
+      <c r="C123" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="D123" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="C124" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="D124" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>124</v>
       </c>
       <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+      <c r="C125" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="D125" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="C126" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="D126" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>126</v>
       </c>
       <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="C127" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="D127" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+      <c r="C128" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="D128" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2420,9 +3475,11 @@
         <v>128</v>
       </c>
       <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
+      <c r="C129" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="D129" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2430,19 +3487,28 @@
         <v>129</v>
       </c>
       <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="C130" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="D130" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>130</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="D131" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2450,9 +3516,11 @@
         <v>131</v>
       </c>
       <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="D132" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2460,9 +3528,11 @@
         <v>132</v>
       </c>
       <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="C133" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="D133" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2470,9 +3540,11 @@
         <v>133</v>
       </c>
       <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+      <c r="C134" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="D134" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2480,9 +3552,11 @@
         <v>134</v>
       </c>
       <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="C135" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="D135" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2490,9 +3564,11 @@
         <v>135</v>
       </c>
       <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="C136" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="D136" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2500,9 +3576,11 @@
         <v>136</v>
       </c>
       <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="C137" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="D137" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2510,9 +3588,11 @@
         <v>137</v>
       </c>
       <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="C138" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="D138" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2520,13 +3600,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E139" s="5"/>
     </row>
@@ -2535,9 +3615,11 @@
         <v>139</v>
       </c>
       <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="C140" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="D140" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2545,9 +3627,11 @@
         <v>140</v>
       </c>
       <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
+      <c r="C141" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D141" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2555,9 +3639,11 @@
         <v>141</v>
       </c>
       <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
+      <c r="C142" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="D142" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2565,9 +3651,11 @@
         <v>142</v>
       </c>
       <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
+      <c r="C143" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="D143" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2575,329 +3663,399 @@
         <v>143</v>
       </c>
       <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="C144" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="D144" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>144</v>
       </c>
       <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
+      <c r="C145" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="D145" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>145</v>
       </c>
       <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="C146" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="D146" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>146</v>
       </c>
       <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="C147" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="D147" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="C148" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="D148" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>148</v>
       </c>
       <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="D149" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="C150" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="D150" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>150</v>
       </c>
       <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="C151" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="D151" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="C152" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="D152" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
+      <c r="C153" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="D153" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>153</v>
       </c>
       <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
+      <c r="C154" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="D154" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>154</v>
       </c>
       <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="C155" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D155" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>155</v>
       </c>
       <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="C156" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D156" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
+      <c r="C157" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="D157" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
+      <c r="C158" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="D158" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
+      <c r="C159" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="D159" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="5">
+        <v>159</v>
+      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D160" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="2">
-        <v>159</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E160" s="5"/>
+    </row>
+    <row r="161" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>160</v>
       </c>
       <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D161" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>161</v>
       </c>
       <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="D162" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>162</v>
       </c>
       <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
+      <c r="C163" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="D163" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="5">
+        <v>163</v>
+      </c>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D164" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="2">
-        <v>163</v>
-      </c>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E164" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>164</v>
       </c>
       <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
+      <c r="C165" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="D165" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>165</v>
       </c>
       <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
+      <c r="C166" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="D166" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>166</v>
       </c>
       <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
+      <c r="C167" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="D167" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>167</v>
       </c>
       <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
+      <c r="C168" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="D168" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>168</v>
       </c>
       <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="C169" s="2" t="s">
+        <v>366</v>
+      </c>
       <c r="D169" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>169</v>
       </c>
       <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="C170" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="D170" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>170</v>
       </c>
       <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
+      <c r="C171" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="D171" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>171</v>
       </c>
       <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
+      <c r="C172" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="D172" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>172</v>
       </c>
       <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
+      <c r="C173" s="2" t="s">
+        <v>370</v>
+      </c>
       <c r="D173" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>173</v>
       </c>
       <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
+      <c r="C174" s="2" t="s">
+        <v>371</v>
+      </c>
       <c r="D174" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>174</v>
       </c>
       <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="C175" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="D175" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>175</v>
       </c>
       <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
+      <c r="C176" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="D176" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2905,9 +4063,11 @@
         <v>176</v>
       </c>
       <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
+      <c r="C177" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="D177" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2915,9 +4075,11 @@
         <v>177</v>
       </c>
       <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
+      <c r="C178" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="D178" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2925,9 +4087,11 @@
         <v>178</v>
       </c>
       <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
+      <c r="C179" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="D179" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2935,9 +4099,11 @@
         <v>179</v>
       </c>
       <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
+      <c r="C180" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="D180" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2945,9 +4111,11 @@
         <v>180</v>
       </c>
       <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
+      <c r="C181" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="D181" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2955,9 +4123,11 @@
         <v>181</v>
       </c>
       <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
+      <c r="C182" s="2" t="s">
+        <v>379</v>
+      </c>
       <c r="D182" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2965,9 +4135,11 @@
         <v>182</v>
       </c>
       <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="C183" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="D183" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2975,9 +4147,11 @@
         <v>183</v>
       </c>
       <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
+      <c r="C184" s="2" t="s">
+        <v>392</v>
+      </c>
       <c r="D184" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2985,9 +4159,11 @@
         <v>184</v>
       </c>
       <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
+      <c r="C185" s="2" t="s">
+        <v>381</v>
+      </c>
       <c r="D185" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2995,9 +4171,11 @@
         <v>185</v>
       </c>
       <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
+      <c r="C186" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="D186" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3005,9 +4183,11 @@
         <v>186</v>
       </c>
       <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
+      <c r="C187" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="D187" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3015,9 +4195,11 @@
         <v>187</v>
       </c>
       <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
+      <c r="C188" s="2" t="s">
+        <v>384</v>
+      </c>
       <c r="D188" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3025,9 +4207,11 @@
         <v>188</v>
       </c>
       <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
+      <c r="C189" s="2" t="s">
+        <v>385</v>
+      </c>
       <c r="D189" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3035,9 +4219,11 @@
         <v>189</v>
       </c>
       <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
+      <c r="C190" s="2" t="s">
+        <v>386</v>
+      </c>
       <c r="D190" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3045,9 +4231,11 @@
         <v>190</v>
       </c>
       <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
+      <c r="C191" s="2" t="s">
+        <v>387</v>
+      </c>
       <c r="D191" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3055,9 +4243,11 @@
         <v>191</v>
       </c>
       <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
+      <c r="C192" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="D192" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3065,9 +4255,11 @@
         <v>192</v>
       </c>
       <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
+      <c r="C193" s="2" t="s">
+        <v>389</v>
+      </c>
       <c r="D193" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/192序列.xlsx
+++ b/192序列.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="402">
   <si>
     <t>九十九　明里</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>天上院　明日香</t>
-  </si>
-  <si>
-    <t>鲇川　惠美</t>
-  </si>
-  <si>
-    <t>貘良　了</t>
   </si>
   <si>
     <t>谜之巴利安</t>
@@ -1199,255 +1193,275 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>stripe_mizuchi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_momoe_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_mutoyugi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_napoleon_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_no96_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_obrien_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_orbital_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_otogi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_pegasus_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_placido_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_reiji_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_rex_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_rio_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_robin_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_rudger_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_ryo_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sagiri_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_saioh_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sanagi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sawatari_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_seiko_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_shark_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sherry_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_shingetsu_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_shobee_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sugoroku_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_syou_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_syun_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_syuta_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_syuzou_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_taro_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_tetsuo_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_three_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_titan_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_todoroki_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_tokunosuke_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_tome_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_tron_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_umimi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_ushio_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_vector_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yaiba_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yamikawa_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yamimarik_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yeager_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yoshizo_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yubel_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yuma_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yusei_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yuto_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yuya_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yuzu_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_zone_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sora_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yamiyugi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zexal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_licid_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5ds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>stripe_mizael_00.ehp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stripe_mizuchi_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_momoe_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_mutoyugi_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_napoleon_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_no96_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_obrien_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_orbital_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_otogi_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_pegasus_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_placido_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_reiji_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_rex_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_rio_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_robin_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_rudger_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_ryo_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_sagiri_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_saioh_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_sanagi_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_sawatari_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_seiko_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_shark_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_sherry_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_shingetsu_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_shobee_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_sugoroku_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_syou_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_syun_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_syuta_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_syuzou_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_taro_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_tetsuo_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_three_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_titan_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_todoroki_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_tokunosuke_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_tome_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_tron_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_umimi_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_ushio_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_vector_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yaiba_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yamikawa_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yamimarik_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yeager_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yoshizo_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yubel_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yuma_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yusei_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yuto_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yuya_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yuzu_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_zone_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_sora_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yamiyugi_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zexal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲇川　惠美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貘良　了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>初代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_licid_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5ds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1548,7 +1562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1576,6 +1590,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1879,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1894,19 +1912,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1914,13 +1932,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E2" s="8"/>
     </row>
@@ -1929,10 +1947,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>0</v>
@@ -1944,10 +1962,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>1</v>
@@ -1959,13 +1977,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
@@ -1976,10 +1994,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>2</v>
@@ -1991,10 +2009,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
@@ -2006,10 +2024,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>4</v>
@@ -2021,91 +2039,116 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+    <row r="10" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C13" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
+    <row r="14" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>400</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2114,10 +2157,10 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2126,10 +2169,10 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2138,10 +2181,10 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2150,10 +2193,10 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2162,10 +2205,10 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2174,10 +2217,10 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2186,10 +2229,10 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2198,10 +2241,10 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2210,10 +2253,10 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2222,10 +2265,10 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2234,10 +2277,10 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2246,10 +2289,10 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2258,10 +2301,10 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2270,10 +2313,10 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2282,10 +2325,10 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2294,10 +2337,10 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2306,10 +2349,10 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2318,10 +2361,10 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2330,10 +2373,10 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2342,10 +2385,10 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2354,10 +2397,10 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2366,10 +2409,10 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2378,10 +2421,10 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2390,10 +2433,10 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2402,10 +2445,10 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2414,10 +2457,10 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2426,10 +2469,10 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2438,10 +2481,10 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2450,10 +2493,10 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2462,10 +2505,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2474,10 +2517,10 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2486,10 +2529,10 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2498,10 +2541,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2510,10 +2553,10 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2522,10 +2565,10 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2534,10 +2577,10 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2546,10 +2589,10 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2558,10 +2601,10 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2570,10 +2613,10 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2582,10 +2625,10 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2594,10 +2637,10 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2606,10 +2649,10 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2618,10 +2661,10 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2630,10 +2673,10 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2642,10 +2685,10 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2654,10 +2697,10 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2666,10 +2709,10 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2678,10 +2721,10 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2690,10 +2733,10 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2702,10 +2745,10 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2714,10 +2757,10 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2726,10 +2769,10 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2738,10 +2781,10 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2750,10 +2793,10 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2762,10 +2805,10 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2774,10 +2817,10 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2786,10 +2829,10 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2798,10 +2841,10 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2810,10 +2853,10 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2822,10 +2865,10 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2834,10 +2877,10 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2846,10 +2889,10 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2858,10 +2901,10 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2870,10 +2913,10 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2882,10 +2925,10 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2894,10 +2937,10 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2906,10 +2949,10 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2918,10 +2961,10 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2930,10 +2973,10 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2942,10 +2985,10 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2954,10 +2997,10 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2966,10 +3009,10 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2978,10 +3021,10 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2990,10 +3033,10 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3002,10 +3045,10 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3014,10 +3057,10 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3026,10 +3069,10 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3038,10 +3081,10 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3050,10 +3093,10 @@
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3062,10 +3105,10 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3074,10 +3117,10 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3086,10 +3129,10 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3098,10 +3141,10 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3110,10 +3153,10 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3122,10 +3165,10 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3134,10 +3177,10 @@
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E101" s="5"/>
     </row>
@@ -3147,10 +3190,10 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3159,10 +3202,10 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3171,10 +3214,10 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3183,10 +3226,10 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3195,10 +3238,10 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3207,10 +3250,10 @@
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3219,10 +3262,10 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3231,10 +3274,10 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3243,10 +3286,10 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3255,10 +3298,10 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3267,10 +3310,10 @@
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3279,10 +3322,10 @@
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3291,10 +3334,10 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3303,10 +3346,10 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3315,10 +3358,10 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3327,10 +3370,10 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3339,10 +3382,10 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3351,10 +3394,10 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3363,10 +3406,10 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3375,10 +3418,10 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3386,13 +3429,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E122" s="2">
         <v>1</v>
@@ -3404,10 +3447,10 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3416,10 +3459,10 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3428,10 +3471,10 @@
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3440,10 +3483,10 @@
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3452,10 +3495,10 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3464,10 +3507,10 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3476,10 +3519,10 @@
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3488,10 +3531,10 @@
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3499,13 +3542,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E131" s="2">
         <v>1</v>
@@ -3517,10 +3560,10 @@
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3529,10 +3572,10 @@
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3541,10 +3584,10 @@
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3553,22 +3596,25 @@
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="4">
         <v>135</v>
       </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>132</v>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3577,10 +3623,10 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3589,10 +3635,10 @@
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3600,13 +3646,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E139" s="5"/>
     </row>
@@ -3616,10 +3662,10 @@
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3628,10 +3674,10 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3640,10 +3686,10 @@
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3652,10 +3698,10 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3664,10 +3710,10 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3676,10 +3722,10 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3688,10 +3734,10 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3700,10 +3746,10 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3712,10 +3758,10 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3724,10 +3770,10 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3736,10 +3782,10 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3748,10 +3794,13 @@
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="E151" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3760,10 +3809,10 @@
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3772,10 +3821,10 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3784,10 +3833,10 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3796,10 +3845,10 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3808,10 +3857,10 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3820,10 +3869,10 @@
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3832,10 +3881,10 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3844,10 +3893,10 @@
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3856,10 +3905,10 @@
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E160" s="5"/>
     </row>
@@ -3869,10 +3918,10 @@
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3881,10 +3930,10 @@
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3893,10 +3942,10 @@
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3905,10 +3954,10 @@
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E164" s="5">
         <v>3</v>
@@ -3920,10 +3969,10 @@
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3932,10 +3981,10 @@
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3944,10 +3993,10 @@
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3956,10 +4005,10 @@
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3968,10 +4017,10 @@
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3980,10 +4029,10 @@
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3992,10 +4041,10 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4004,10 +4053,10 @@
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4016,10 +4065,10 @@
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4028,10 +4077,10 @@
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4040,10 +4089,10 @@
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4052,10 +4101,10 @@
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4064,10 +4113,10 @@
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4076,10 +4125,10 @@
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4088,10 +4137,10 @@
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4100,10 +4149,10 @@
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4112,10 +4161,10 @@
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4124,10 +4173,10 @@
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4136,10 +4185,10 @@
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4148,10 +4197,10 @@
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4160,10 +4209,10 @@
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4172,10 +4221,10 @@
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4184,10 +4233,10 @@
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4196,10 +4245,10 @@
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4208,10 +4257,10 @@
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4220,10 +4269,10 @@
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4232,10 +4281,10 @@
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4244,10 +4293,10 @@
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4256,10 +4305,10 @@
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/192序列.xlsx
+++ b/192序列.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="407">
   <si>
     <t>九十九　明里</t>
   </si>
@@ -48,16 +48,10 @@
     <t>天上院　明日香</t>
   </si>
   <si>
-    <t>谜之巴利安</t>
-  </si>
-  <si>
     <t>波马</t>
   </si>
   <si>
     <t>布雷弗</t>
-  </si>
-  <si>
-    <t>布雷欧</t>
   </si>
   <si>
     <t>布鲁诺</t>
@@ -717,751 +711,779 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>stripe_bommer_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_breo_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_bruno_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_bruno_01.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_card1az_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_card2wd_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_card3vs_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_card4vd_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_card5am_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_cathy_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_charlie_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_cronos_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_crow_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_curley_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_daitokuji_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_devine_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_dimachaer_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_dog_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_dolowa_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_dragan_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_durbe_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_edo_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_faker_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_five_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_four_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_fubuki_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_fujiwara_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_girag_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gongenzaka_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_goshu_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_boy_aa_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_boy_bb_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_aa_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_ab_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_ae_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_ad_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_ba_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_bb_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_bc_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_bd_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_be_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_ca_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_dagirl_cd_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_girl_aa_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_girl_ad_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_girl_bb_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_girl_be_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_man_ab_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_man_bc_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_man_bd_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_man_be_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student01_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student02_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student03_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student04_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student05_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student06_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student07_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student08_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student09_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student10_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student11_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_student12_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff01_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff02_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff03_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff04_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff05_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff06_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff07_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_wdcstaff08_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_woman_bc_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_woman_ca_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_gp_woman_ce_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_haga_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_harald_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_haru_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_haruto_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_hayato_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_himuro_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_hokuto_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_honda_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_hose_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_housaku_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_isizu_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_jack_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_jean_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_jim_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_jinbei_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_johann_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_jonouchi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_judai_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_junko_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kagurazaka_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kaiba_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kaito_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kajiki_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kakeru_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kamyura_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kenzan_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kiryu_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kotori_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_kyuando_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_larry_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_lua_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_luca_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_lucciano_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_mai_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_manjoume_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_marik_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_masumi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_meikyu_old_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_meikyu_young_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_michio_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_mieru_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_misawa_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_misty_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_mizuchi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_momoe_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_mutoyugi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_napoleon_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_no96_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_obrien_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_orbital_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_otogi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_pegasus_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_placido_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_reiji_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_rex_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_rio_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_robin_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_rudger_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_ryo_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sagiri_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_saioh_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sanagi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sawatari_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_seiko_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_shark_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sherry_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_shingetsu_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_shobee_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sugoroku_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_syou_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_syun_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_syuta_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_syuzou_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_taro_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_tetsuo_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_three_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_titan_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_todoroki_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_tokunosuke_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_tome_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_tron_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_umimi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_ushio_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_vector_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yaiba_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yamikawa_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yamimarik_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yeager_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yoshizo_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yubel_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yuma_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yusei_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yuto_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yuya_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yuzu_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_zone_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_sora_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_yamiyugi_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zexal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_licid_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5ds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_mizael_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zexal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲇川　惠美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貘良　了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝库塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zexal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5DS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布雷欧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripe_brave_00.ehp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>stripe_balien_00.ehp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stripe_bommer_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_brave_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_breo_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_bruno_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_bruno_01.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_card1az_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_card2wd_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_card3vs_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_card4vd_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_card5am_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_cathy_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_charlie_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_cronos_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_crow_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_curley_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_daitokuji_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_devine_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_dimachaer_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_dog_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_dolowa_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_dragan_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_durbe_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_edo_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_faker_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_five_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_four_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_fubuki_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_fujiwara_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_girag_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gongenzaka_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_goshu_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_boy_aa_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_boy_bb_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_dagirl_aa_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_dagirl_ab_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_dagirl_ae_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_dagirl_ad_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_dagirl_ba_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_dagirl_bb_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_dagirl_bc_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_dagirl_bd_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_dagirl_be_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_dagirl_ca_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_dagirl_cd_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_girl_aa_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_girl_ad_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_girl_bb_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_girl_be_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_man_ab_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_man_bc_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_man_bd_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_man_be_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_student01_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_student02_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_student03_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_student04_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_student05_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_student06_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_student07_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_student08_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_student09_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_student10_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_student11_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_student12_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_wdcstaff01_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_wdcstaff02_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_wdcstaff03_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_wdcstaff04_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_wdcstaff05_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_wdcstaff06_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_wdcstaff07_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_wdcstaff08_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_woman_bc_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_woman_ca_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_gp_woman_ce_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_haga_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_harald_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_haru_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_haruto_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_hayato_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_himuro_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_hokuto_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_honda_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_hose_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_housaku_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_isizu_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_jack_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_jean_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_jim_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_jinbei_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_johann_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_jonouchi_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_judai_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_junko_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_kagurazaka_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_kaiba_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_kaito_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_kajiki_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_kakeru_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_kamyura_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_kenzan_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_kiryu_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_kotori_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_kyuando_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_larry_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_lua_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_luca_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_lucciano_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_mai_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_manjoume_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_marik_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_masumi_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_meikyu_old_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_meikyu_young_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_michio_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_mieru_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_misawa_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_misty_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_mizuchi_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_momoe_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_mutoyugi_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_napoleon_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_no96_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_obrien_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_orbital_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_otogi_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_pegasus_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_placido_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_reiji_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_rex_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_rio_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_robin_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_rudger_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_ryo_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_sagiri_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_saioh_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_sanagi_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_sawatari_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_seiko_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_shark_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_sherry_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_shingetsu_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_shobee_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_sugoroku_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_syou_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_syun_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_syuta_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_syuzou_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_taro_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_tetsuo_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_three_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_titan_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_todoroki_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_tokunosuke_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_tome_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_tron_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_umimi_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_ushio_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_vector_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yaiba_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yamikawa_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yamimarik_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yeager_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yoshizo_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yubel_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yuma_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yusei_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yuto_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yuya_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yuzu_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_zone_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_sora_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_yamiyugi_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zexal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_licid_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5ds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stripe_mizael_00.ehp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zexal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲇川　惠美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貘良　了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初代</t>
+    <t>暂无法解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come on 被吃掉了on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>come on</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1562,7 +1584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1594,6 +1616,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1895,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1908,156 +1933,166 @@
     <col min="3" max="3" width="30.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="20" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>196</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>202</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="8"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>6</v>
@@ -2065,16 +2100,17 @@
       <c r="E10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>7</v>
@@ -2082,277 +2118,300 @@
       <c r="E11" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+      <c r="C15" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
+      <c r="E20" s="8"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="8"/>
+      <c r="F21" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2361,10 +2420,10 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2373,10 +2432,10 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2385,10 +2444,10 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2397,10 +2456,10 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2409,10 +2468,10 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2421,10 +2480,10 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2433,10 +2492,10 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2445,10 +2504,10 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2457,10 +2516,10 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2469,10 +2528,10 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2481,10 +2540,10 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2493,10 +2552,10 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2505,10 +2564,10 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2517,10 +2576,10 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2529,10 +2588,10 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2541,10 +2600,10 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2553,10 +2612,10 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2565,10 +2624,10 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2577,10 +2636,10 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2589,10 +2648,10 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2601,10 +2660,10 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2613,10 +2672,10 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2625,10 +2684,10 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2637,10 +2696,10 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2649,10 +2708,10 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2661,10 +2720,10 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2673,10 +2732,10 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2685,10 +2744,10 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2697,10 +2756,10 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2709,10 +2768,10 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2721,10 +2780,10 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2733,10 +2792,10 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2745,10 +2804,10 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2757,10 +2816,10 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2769,10 +2828,10 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2781,10 +2840,10 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2793,10 +2852,10 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2805,10 +2864,10 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2817,10 +2876,10 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2829,10 +2888,10 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2841,10 +2900,10 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2853,10 +2912,10 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2865,10 +2924,10 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2877,10 +2936,10 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2889,10 +2948,10 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2901,10 +2960,10 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2913,10 +2972,10 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2925,10 +2984,10 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2937,10 +2996,10 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2949,10 +3008,10 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2961,10 +3020,10 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2973,10 +3032,10 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2985,10 +3044,10 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2997,10 +3056,10 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3009,10 +3068,10 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3021,10 +3080,10 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3033,10 +3092,10 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3045,10 +3104,10 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3057,10 +3116,10 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3069,10 +3128,10 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3081,10 +3140,10 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3093,10 +3152,10 @@
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3105,10 +3164,10 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3117,203 +3176,204 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="5">
         <v>100</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E101" s="5"/>
-    </row>
-    <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3322,10 +3382,10 @@
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3334,10 +3394,10 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3346,10 +3406,10 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3358,10 +3418,10 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3370,10 +3430,10 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3382,10 +3442,10 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3394,10 +3454,10 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3406,10 +3466,10 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3418,10 +3478,10 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3429,16 +3489,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E122" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3447,10 +3507,10 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3459,10 +3519,10 @@
       </c>
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3471,10 +3531,10 @@
       </c>
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3483,10 +3543,10 @@
       </c>
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3495,10 +3555,10 @@
       </c>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -3507,604 +3567,611 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>128</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>129</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>131</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>133</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>134</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4">
         <v>135</v>
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E136" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>136</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>137</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="5">
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E139" s="5"/>
-    </row>
-    <row r="140" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>139</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>140</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>141</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>142</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>143</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>144</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>145</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>146</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>148</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>150</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E151" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>153</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>154</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>155</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="5">
         <v>159</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E160" s="5"/>
-    </row>
-    <row r="161" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F160" s="5"/>
+    </row>
+    <row r="161" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>160</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>161</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>162</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="5">
         <v>163</v>
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E164" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F164" s="5"/>
+    </row>
+    <row r="165" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>164</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>165</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>166</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>167</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>168</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>169</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>170</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>171</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>172</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>173</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>174</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>175</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4113,10 +4180,10 @@
       </c>
       <c r="B177" s="2"/>
       <c r="C177" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4125,10 +4192,10 @@
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4137,10 +4204,10 @@
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4149,10 +4216,10 @@
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4161,10 +4228,10 @@
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4173,10 +4240,10 @@
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4185,10 +4252,10 @@
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4197,10 +4264,10 @@
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4209,10 +4276,10 @@
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4221,10 +4288,10 @@
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4233,10 +4300,10 @@
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4245,10 +4312,10 @@
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4257,10 +4324,10 @@
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4269,10 +4336,10 @@
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4281,10 +4348,10 @@
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4293,10 +4360,10 @@
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4305,10 +4372,10 @@
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
